--- a/python-kmeans-dominant-colors/images/data.xlsx
+++ b/python-kmeans-dominant-colors/images/data.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,22 +367,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154.9247908715609</v>
+        <v>222.6502676387059</v>
       </c>
       <c r="C2" t="n">
-        <v>44.0515014843221</v>
+        <v>194.7108674333073</v>
       </c>
       <c r="D2" t="n">
-        <v>52.25655654510659</v>
+        <v>185.7531638091805</v>
       </c>
       <c r="E2" t="n">
-        <v>222.6531064432751</v>
+        <v>154.9222208657224</v>
       </c>
       <c r="F2" t="n">
-        <v>194.7166356467058</v>
+        <v>44.04518964505469</v>
       </c>
       <c r="G2" t="n">
-        <v>185.7581966971803</v>
+        <v>52.2508786698172</v>
       </c>
     </row>
     <row r="3">
@@ -392,22 +392,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.876259325547</v>
+        <v>222.4168058313651</v>
       </c>
       <c r="C3" t="n">
-        <v>46.10831646546879</v>
+        <v>194.7335531531196</v>
       </c>
       <c r="D3" t="n">
-        <v>62.38990226112403</v>
+        <v>184.3878250055986</v>
       </c>
       <c r="E3" t="n">
-        <v>222.4164980372491</v>
+        <v>161.8738664228724</v>
       </c>
       <c r="F3" t="n">
-        <v>194.7367311117643</v>
+        <v>46.10617452484736</v>
       </c>
       <c r="G3" t="n">
-        <v>184.3901979665053</v>
+        <v>62.38792046436724</v>
       </c>
     </row>
     <row r="4">
@@ -417,22 +417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.9793072872927</v>
+        <v>219.9783314736698</v>
       </c>
       <c r="C4" t="n">
-        <v>190.85446357837</v>
+        <v>190.8532766795202</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5644467913799</v>
+        <v>179.5633567786579</v>
       </c>
       <c r="E4" t="n">
-        <v>163.3237675683962</v>
+        <v>163.3230825912691</v>
       </c>
       <c r="F4" t="n">
-        <v>82.93422589402778</v>
+        <v>82.9318637901261</v>
       </c>
       <c r="G4" t="n">
-        <v>93.9636129903399</v>
+        <v>93.96197322225503</v>
       </c>
     </row>
     <row r="5">
@@ -442,22 +442,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.4511587916294</v>
+        <v>181.1965339308392</v>
       </c>
       <c r="C5" t="n">
-        <v>193.531571730355</v>
+        <v>64.05430533958447</v>
       </c>
       <c r="D5" t="n">
-        <v>180.0168255180337</v>
+        <v>54.96682611113468</v>
       </c>
       <c r="E5" t="n">
-        <v>181.1989560492236</v>
+        <v>224.4471059567549</v>
       </c>
       <c r="F5" t="n">
-        <v>64.06569760389847</v>
+        <v>193.5229000555506</v>
       </c>
       <c r="G5" t="n">
-        <v>54.97724429247555</v>
+        <v>180.0079620607015</v>
       </c>
     </row>
     <row r="6">
@@ -467,22 +467,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.2374045457004</v>
+        <v>160.2374515194139</v>
       </c>
       <c r="C6" t="n">
-        <v>61.11443977518582</v>
+        <v>61.11389840710791</v>
       </c>
       <c r="D6" t="n">
-        <v>55.71031584645441</v>
+        <v>55.70977896590198</v>
       </c>
       <c r="E6" t="n">
-        <v>222.3797052996547</v>
+        <v>222.3793525087077</v>
       </c>
       <c r="F6" t="n">
-        <v>189.8981550271868</v>
+        <v>189.8978614729238</v>
       </c>
       <c r="G6" t="n">
-        <v>175.4869572394099</v>
+        <v>175.4867070809823</v>
       </c>
     </row>
     <row r="7">
@@ -492,22 +492,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167.1982306010699</v>
+        <v>167.196733804356</v>
       </c>
       <c r="C7" t="n">
-        <v>84.53797502107254</v>
+        <v>84.53428133780181</v>
       </c>
       <c r="D7" t="n">
-        <v>84.10245292661966</v>
+        <v>84.09957858007533</v>
       </c>
       <c r="E7" t="n">
-        <v>224.8087334041895</v>
+        <v>224.8073434035208</v>
       </c>
       <c r="F7" t="n">
-        <v>199.2085063439112</v>
+        <v>199.2062323272674</v>
       </c>
       <c r="G7" t="n">
-        <v>181.1020929475655</v>
+        <v>181.0999968466143</v>
       </c>
     </row>
     <row r="8">
@@ -517,22 +517,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.3043905250269</v>
+        <v>202.3262165408199</v>
       </c>
       <c r="C8" t="n">
-        <v>203.1173635500681</v>
+        <v>117.898710364741</v>
       </c>
       <c r="D8" t="n">
-        <v>188.1306749644251</v>
+        <v>116.1131660659737</v>
       </c>
       <c r="E8" t="n">
-        <v>202.3272194354909</v>
+        <v>228.3032966680435</v>
       </c>
       <c r="F8" t="n">
-        <v>117.9031848674096</v>
+        <v>203.1146121865906</v>
       </c>
       <c r="G8" t="n">
-        <v>116.1164486008829</v>
+        <v>188.1279973954601</v>
       </c>
     </row>
     <row r="9">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.1385290099458</v>
+        <v>177.1387570815961</v>
       </c>
       <c r="C10" t="n">
-        <v>72.25285067206852</v>
+        <v>72.25380323798643</v>
       </c>
       <c r="D10" t="n">
-        <v>79.07619526916741</v>
+        <v>79.07694906959779</v>
       </c>
       <c r="E10" t="n">
-        <v>225.3680625584849</v>
+        <v>225.3684534700331</v>
       </c>
       <c r="F10" t="n">
-        <v>198.7435524288036</v>
+        <v>198.7442799947586</v>
       </c>
       <c r="G10" t="n">
-        <v>183.6338154040367</v>
+        <v>183.6344450280823</v>
       </c>
     </row>
     <row r="11">
@@ -592,22 +592,272 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225.9787702493267</v>
+        <v>225.9782289248531</v>
       </c>
       <c r="C11" t="n">
-        <v>197.7481167558861</v>
+        <v>197.7473682624572</v>
       </c>
       <c r="D11" t="n">
-        <v>180.9673754953638</v>
+        <v>180.9665635203873</v>
       </c>
       <c r="E11" t="n">
-        <v>190.1330034001267</v>
+        <v>190.1330064150057</v>
       </c>
       <c r="F11" t="n">
-        <v>73.70989044181431</v>
+        <v>73.70820645707211</v>
       </c>
       <c r="G11" t="n">
-        <v>92.67205137900683</v>
+        <v>92.67127324390847</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>test11.png</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>224.5953870543361</v>
+      </c>
+      <c r="C12" t="n">
+        <v>195.4579338763644</v>
+      </c>
+      <c r="D12" t="n">
+        <v>178.3599087813492</v>
+      </c>
+      <c r="E12" t="n">
+        <v>191.1034044018296</v>
+      </c>
+      <c r="F12" t="n">
+        <v>63.45647665831191</v>
+      </c>
+      <c r="G12" t="n">
+        <v>89.42979255858056</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>test12.png</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>227.8480109937564</v>
+      </c>
+      <c r="C13" t="n">
+        <v>198.3747528810888</v>
+      </c>
+      <c r="D13" t="n">
+        <v>182.1496841699189</v>
+      </c>
+      <c r="E13" t="n">
+        <v>210.4074641895793</v>
+      </c>
+      <c r="F13" t="n">
+        <v>72.12679051879499</v>
+      </c>
+      <c r="G13" t="n">
+        <v>81.70473162886231</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>test13.png</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>200.6725651820175</v>
+      </c>
+      <c r="C14" t="n">
+        <v>89.06134170851068</v>
+      </c>
+      <c r="D14" t="n">
+        <v>86.05055084739126</v>
+      </c>
+      <c r="E14" t="n">
+        <v>225.0921611310618</v>
+      </c>
+      <c r="F14" t="n">
+        <v>195.235316938437</v>
+      </c>
+      <c r="G14" t="n">
+        <v>177.7379464191756</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>test14.png</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>216.5794692547954</v>
+      </c>
+      <c r="C15" t="n">
+        <v>116.9982014390328</v>
+      </c>
+      <c r="D15" t="n">
+        <v>107.8312746030789</v>
+      </c>
+      <c r="E15" t="n">
+        <v>225.5524102935827</v>
+      </c>
+      <c r="F15" t="n">
+        <v>195.7852275670841</v>
+      </c>
+      <c r="G15" t="n">
+        <v>177.6065862373297</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>test15.png</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>228.9605300535901</v>
+      </c>
+      <c r="C16" t="n">
+        <v>202.6330341831757</v>
+      </c>
+      <c r="D16" t="n">
+        <v>185.7348154070685</v>
+      </c>
+      <c r="E16" t="n">
+        <v>215.3663835605905</v>
+      </c>
+      <c r="F16" t="n">
+        <v>120.5620488818938</v>
+      </c>
+      <c r="G16" t="n">
+        <v>108.1741891375908</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>test16.png</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>207.6082211614333</v>
+      </c>
+      <c r="C17" t="n">
+        <v>76.87113032447043</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74.7494382867319</v>
+      </c>
+      <c r="E17" t="n">
+        <v>226.3939868774156</v>
+      </c>
+      <c r="F17" t="n">
+        <v>197.5065737439152</v>
+      </c>
+      <c r="G17" t="n">
+        <v>180.1267143220087</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>test17.png</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>227.9026002057171</v>
+      </c>
+      <c r="C18" t="n">
+        <v>200.581584851632</v>
+      </c>
+      <c r="D18" t="n">
+        <v>183.4312696185846</v>
+      </c>
+      <c r="E18" t="n">
+        <v>223.7769487472341</v>
+      </c>
+      <c r="F18" t="n">
+        <v>91.88262491569373</v>
+      </c>
+      <c r="G18" t="n">
+        <v>92.22454199406575</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>test18.png</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>190.4858034071418</v>
+      </c>
+      <c r="C19" t="n">
+        <v>80.8560127386833</v>
+      </c>
+      <c r="D19" t="n">
+        <v>73.72946129297287</v>
+      </c>
+      <c r="E19" t="n">
+        <v>226.011741592034</v>
+      </c>
+      <c r="F19" t="n">
+        <v>196.2154963005472</v>
+      </c>
+      <c r="G19" t="n">
+        <v>178.006716116408</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>test19.png</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>173.5209021054862</v>
+      </c>
+      <c r="C20" t="n">
+        <v>72.66022635850081</v>
+      </c>
+      <c r="D20" t="n">
+        <v>69.26459818573859</v>
+      </c>
+      <c r="E20" t="n">
+        <v>224.4378481398474</v>
+      </c>
+      <c r="F20" t="n">
+        <v>196.1572451094019</v>
+      </c>
+      <c r="G20" t="n">
+        <v>180.8543753920786</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>test20.png</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>225.3176055929448</v>
+      </c>
+      <c r="C21" t="n">
+        <v>194.8755753463178</v>
+      </c>
+      <c r="D21" t="n">
+        <v>176.4178463680738</v>
+      </c>
+      <c r="E21" t="n">
+        <v>178.2733762067254</v>
+      </c>
+      <c r="F21" t="n">
+        <v>63.06125499473602</v>
+      </c>
+      <c r="G21" t="n">
+        <v>63.48511826643323</v>
       </c>
     </row>
   </sheetData>
